--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14190" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ケア対象者一覧" sheetId="25" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$F$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$6:$7</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,52 +29,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>住民税チェックリスト（納付先別）</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウミンゼイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ノウフ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>住　民　税　納　付　先</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>サキ</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;=$DBD_00３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;=$DBD_00４</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　住　民　税　納　付　先</t>
-    <rPh sb="2" eb="3">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オサメ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>人　　数</t>
@@ -79,7 +60,7 @@
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>納　　付　　額</t>
@@ -92,64 +73,50 @@
     <rPh sb="6" eb="7">
       <t>ガク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　【　住民税納付先 :　　　　　　　　　                                                                                        】　</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウミン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ノウフ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　【　処理年月 :　　　　　　　　　                                】　</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　【　日通システム株式会社　　　　　　　　　　】</t>
-    <rPh sb="3" eb="5">
-      <t>ニッツウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&amp;=list.residenceTaxCode</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&amp;=list.resiTaxAutonomy</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=list.numberPeople</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=list.value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.lateResiTaxAutonomy(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.startResiTaxAutonomy(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【　処理年月 :　　　　　　　　　                                】　</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +126,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -166,31 +147,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -198,20 +161,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -231,59 +198,171 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF0041D2"/>
+      <color rgb="FFFF7005"/>
+      <color rgb="FFDE8F00"/>
+      <color rgb="FF00B050"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFE37D8C"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFEF4F6"/>
+      <color rgb="FFEC9520"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,140 +637,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="32.25" x14ac:dyDescent="0.15">
-      <c r="F4" s="1"/>
-      <c r="I4" s="4" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:N10"/>
+  <mergeCells count="5">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L【　日通システム株式会社    】&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>住　民　税　納　付　先</t>
     <rPh sb="0" eb="1">
@@ -104,11 +104,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>【　処理年月 :　　　　　　　　　                                】　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>&amp;=header.startResiTaxAutonomy(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【　処理年月 :　　　　　　　　　                                】　</t>
+    <t>&amp;=header.date(bean)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -204,7 +208,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -214,23 +220,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -239,7 +232,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -250,10 +245,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -266,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,38 +291,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,17 +656,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="28.25" style="5" customWidth="1"/>
@@ -655,13 +674,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -671,27 +690,29 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
@@ -705,45 +726,48 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D8:F8"/>
@@ -756,7 +780,7 @@
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L【　日通システム株式会社    】&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$F$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$6:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ケア対象者一覧!$A$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ケア対象者一覧!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>住　民　税　納　付　先</t>
     <rPh sb="0" eb="1">
@@ -92,27 +92,31 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">【　住民税納付先 :　　　　　　　　　                                                   </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp;=header.lateResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【　処理年月 :　　　　　　　　　                                】　</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&amp;=header.startResiTaxAutonomy(bean)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&amp;=header.date(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=list.unit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp;=header.resiTaxAutonomy(bean)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【　住民税納付先 :　　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　                                                   </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">住民税チェックリスト（納付先別） </t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -120,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,16 +188,35 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5F1F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,70 +225,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -276,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,52 +262,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -371,6 +345,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFC6DAE6"/>
       <color rgb="FF0041D2"/>
       <color rgb="FFFF7005"/>
       <color rgb="FFDE8F00"/>
@@ -659,128 +634,120 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.47244094488188998" right="0.47244094488188998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"+,標準"&amp;18住民税チェックリスト（納付先別）&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;R&amp;"+,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/qpp011b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonnh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\code v2\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,11 +124,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -136,7 +136,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -149,7 +149,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -163,7 +163,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -286,26 +286,26 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,45 +634,45 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -684,29 +684,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="1.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -724,15 +724,15 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="C7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1"/>
+    <row r="9" spans="1:6">
       <c r="B9" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="C11" s="10"/>
     </row>
   </sheetData>
